--- a/tut06/output/attendance_report_consolidated.xlsx
+++ b/tut06/output/attendance_report_consolidated.xlsx
@@ -2495,7 +2495,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2542,10 +2542,10 @@
         <v>16</v>
       </c>
       <c r="T21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U21" t="n">
-        <v>37.5</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="22">
